--- a/PCA_plotting/elements_pca_coordinates.xlsx
+++ b/PCA_plotting/elements_pca_coordinates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,14 +458,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Li</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.303244193590951</v>
+        <v>-4.434009719253758</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4921257479448143</v>
+        <v>-4.604268080732219</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -474,14 +474,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>He</t>
+          <t>Be</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.833991768067911</v>
+        <v>-0.2176394563147357</v>
       </c>
       <c r="C3" t="n">
-        <v>3.740556924793519</v>
+        <v>-4.334511993036839</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -490,14 +490,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Li</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.862160883768351</v>
+        <v>2.068521583409533</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.46294542882899</v>
+        <v>-4.211866594916784</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -506,14 +506,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Be</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.930850574726137</v>
+        <v>5.78124405113757</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.514222441942189</v>
+        <v>-4.110946113319633</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -522,14 +522,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.463470144505949</v>
+        <v>-4.676906601110649</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4710096377321342</v>
+        <v>-2.140532490645227</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -538,14 +538,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Mg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.939147852019265</v>
+        <v>-2.311516903376747</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9779944760307413</v>
+        <v>-2.560359389590025</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -554,14 +554,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Al</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.375243836797218</v>
+        <v>-0.8034150706049833</v>
       </c>
       <c r="C8" t="n">
-        <v>3.288712460940433</v>
+        <v>-2.608709258891068</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -570,14 +570,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.811855186053375</v>
+        <v>1.592644139501119</v>
       </c>
       <c r="C9" t="n">
-        <v>4.386536123441125</v>
+        <v>-3.161414697644425</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -586,14 +586,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.345902701734822</v>
+        <v>2.105970131659804</v>
       </c>
       <c r="C10" t="n">
-        <v>5.899848245175198</v>
+        <v>-3.528420486532186</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -602,14 +602,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ne</t>
+          <t>S</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.564782972709828</v>
+        <v>2.7408759215942</v>
       </c>
       <c r="C11" t="n">
-        <v>6.700466349213198</v>
+        <v>-4.253166772032525</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -618,14 +618,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.673864601759539</v>
+        <v>-5.543477258169122</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.179731480122682</v>
+        <v>-1.210661922040377</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -634,14 +634,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mg</t>
+          <t>Ca</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.73596555367227</v>
+        <v>-3.143803191021438</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.408083299050148</v>
+        <v>-1.29292139860864</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -650,14 +650,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Al</t>
+          <t>Sc</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.170513780143814</v>
+        <v>-1.703320835066732</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.967818023973614</v>
+        <v>-1.153514247995267</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -666,14 +666,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Ti</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.031206248045231</v>
+        <v>-0.1552917695663274</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01774381838597253</v>
+        <v>-1.230794616295376</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -682,14 +682,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.560261191553311</v>
+        <v>0.7974107702665946</v>
       </c>
       <c r="C16" t="n">
-        <v>1.663959179210356</v>
+        <v>-1.014379394710694</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -698,14 +698,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Cr</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.914236117121166</v>
+        <v>0.9355626293990541</v>
       </c>
       <c r="C17" t="n">
-        <v>2.617240300632818</v>
+        <v>-0.935865344354283</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -714,14 +714,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cl</t>
+          <t>Mn</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.477856404106578</v>
+        <v>0.9625105807469475</v>
       </c>
       <c r="C18" t="n">
-        <v>3.963996395612313</v>
+        <v>-1.285996436117181</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -730,14 +730,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ar</t>
+          <t>Fe</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.535628370394607</v>
+        <v>1.393444701111104</v>
       </c>
       <c r="C19" t="n">
-        <v>4.601721952425152</v>
+        <v>-0.8238472369320148</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -746,14 +746,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.060273390792937</v>
+        <v>1.574789000747904</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.506836408689272</v>
+        <v>-0.9275766323768528</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -762,14 +762,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ca</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.782918899149844</v>
+        <v>1.495977681023069</v>
       </c>
       <c r="C21" t="n">
-        <v>-5.273666100633935</v>
+        <v>-1.002463144286675</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -778,14 +778,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sc</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.635644163024763</v>
+        <v>0.3771034001880205</v>
       </c>
       <c r="C22" t="n">
-        <v>-4.588720962089301</v>
+        <v>-0.8733528147420134</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -794,14 +794,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ti</t>
+          <t>Zn</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.850495347945191</v>
+        <v>-0.6282363453114702</v>
       </c>
       <c r="C23" t="n">
-        <v>-3.525508727011792</v>
+        <v>-1.302343442228162</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -810,14 +810,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Ga</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.913002748257342</v>
+        <v>-0.4352329456544234</v>
       </c>
       <c r="C24" t="n">
-        <v>-3.002489826791503</v>
+        <v>-1.715584951132314</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -826,14 +826,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cr</t>
+          <t>Ge</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.955738652435715</v>
+        <v>1.780247570251603</v>
       </c>
       <c r="C25" t="n">
-        <v>-3.007159561296161</v>
+        <v>-1.73983090307394</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -842,14 +842,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Mn</t>
+          <t>As</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.193239706607751</v>
+        <v>1.977877502574015</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.905619990139012</v>
+        <v>-1.663281083887123</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -858,14 +858,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Se</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.117056895607848</v>
+        <v>2.912970451741014</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.568002715690001</v>
+        <v>-2.387520565875811</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -874,14 +874,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Co</t>
+          <t>Rb</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.996859148521482</v>
+        <v>-5.407208732587695</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.468754734183705</v>
+        <v>0.007790431391479594</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -890,14 +890,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Sr</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.996369779293611</v>
+        <v>-2.93283481800379</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.192805291999115</v>
+        <v>-0.5447350809222442</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -906,14 +906,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.946411055001295</v>
+        <v>-2.048778461356338</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.607209791981727</v>
+        <v>0.1394211587391379</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -922,14 +922,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Zn</t>
+          <t>Zr</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.264739054872881</v>
+        <v>-0.324056021843108</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.5735338052339292</v>
+        <v>0.1318196457026306</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -938,14 +938,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ga</t>
+          <t>Nb</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.380898087790051</v>
+        <v>1.168266455326415</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.2264000360492893</v>
+        <v>0.4857747058583572</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -954,14 +954,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ge</t>
+          <t>Mo</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.636159539594267</v>
+        <v>2.315126391243586</v>
       </c>
       <c r="C33" t="n">
-        <v>1.000100861396069</v>
+        <v>0.5696301205389922</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -970,14 +970,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>As</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.264373001187596</v>
+        <v>3.032732232317799</v>
       </c>
       <c r="C34" t="n">
-        <v>2.293773108444244</v>
+        <v>0.4240948863932589</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -986,14 +986,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Se</t>
+          <t>Rh</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.709592226135991</v>
+        <v>2.803275176915581</v>
       </c>
       <c r="C35" t="n">
-        <v>3.912667341515093</v>
+        <v>0.2724710285838941</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1002,14 +1002,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Br</t>
+          <t>Pd</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5.060183117226651</v>
+        <v>1.884713084715444</v>
       </c>
       <c r="C36" t="n">
-        <v>5.124068280071485</v>
+        <v>-0.4657653651644204</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1018,14 +1018,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Kr</t>
+          <t>Ag</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.104629328728142</v>
+        <v>0.01608871558094472</v>
       </c>
       <c r="C37" t="n">
-        <v>5.540091729307339</v>
+        <v>0.2161210593133014</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1034,14 +1034,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Rb</t>
+          <t>Cd</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.2241589191970347</v>
+        <v>-0.9594736599100002</v>
       </c>
       <c r="C38" t="n">
-        <v>-7.145214280697376</v>
+        <v>-0.1090058207320268</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1050,14 +1050,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sr</t>
+          <t>In</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.4666300137557809</v>
+        <v>-1.183034207084115</v>
       </c>
       <c r="C39" t="n">
-        <v>-4.928624354723996</v>
+        <v>0.04951739137964709</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1066,14 +1066,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Sn</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1908646387926369</v>
+        <v>0.5443767124927051</v>
       </c>
       <c r="C40" t="n">
-        <v>-4.370542795821197</v>
+        <v>-0.3878250590528821</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1082,14 +1082,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Zr</t>
+          <t>Sb</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2836643129667937</v>
+        <v>1.312896933961728</v>
       </c>
       <c r="C41" t="n">
-        <v>-3.3910353240185</v>
+        <v>-0.4295212126788545</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1098,14 +1098,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Nb</t>
+          <t>Te</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1673985255100936</v>
+        <v>2.313889306543394</v>
       </c>
       <c r="C42" t="n">
-        <v>-3.236482699245328</v>
+        <v>-0.932434834730782</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1114,14 +1114,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mo</t>
+          <t>Cs</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1373913077134471</v>
+        <v>-5.713971504157333</v>
       </c>
       <c r="C43" t="n">
-        <v>-2.757694784633879</v>
+        <v>0.9520154150497439</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1130,14 +1130,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Tc</t>
+          <t>Ba</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1087275495348822</v>
+        <v>-4.097294612225496</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.770730064889672</v>
+        <v>1.079099295545833</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1146,14 +1146,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>La</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1773304867036556</v>
+        <v>-2.470592639656797</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.71317597459019</v>
+        <v>1.057600059295124</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1162,14 +1162,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Rh</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1466504287970377</v>
+        <v>-2.148151220768787</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.476537197057306</v>
+        <v>1.006860453680603</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1178,14 +1178,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Pd</t>
+          <t>Pr</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9723141947649485</v>
+        <v>-2.037557316164712</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1630514034616816</v>
+        <v>1.247211436306071</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1194,14 +1194,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ag</t>
+          <t>Nd</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3481615300321842</v>
+        <v>-1.845131410723162</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.9352453793077896</v>
+        <v>1.373141044638736</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1210,14 +1210,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Sm</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.6033086181525086</v>
+        <v>-1.761425365655771</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07128695772840968</v>
+        <v>1.614954367712866</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -1226,14 +1226,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>In</t>
+          <t>Eu</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4969985027029484</v>
+        <v>-2.653172873097184</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3683862142054428</v>
+        <v>2.062026275379875</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -1242,14 +1242,14 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sn</t>
+          <t>Gd</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.5718206458431495</v>
+        <v>-1.165240975460138</v>
       </c>
       <c r="C51" t="n">
-        <v>1.251673592119888</v>
+        <v>2.031355280115967</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1258,14 +1258,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sb</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.131683087264328</v>
+        <v>-1.187470652394844</v>
       </c>
       <c r="C52" t="n">
-        <v>2.806467193910706</v>
+        <v>1.890492560338357</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -1274,14 +1274,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Te</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.361840297093509</v>
+        <v>-1.321535678270831</v>
       </c>
       <c r="C53" t="n">
-        <v>4.280485078800131</v>
+        <v>1.805867946958229</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -1290,14 +1290,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.678719795268568</v>
+        <v>-1.234054755964226</v>
       </c>
       <c r="C54" t="n">
-        <v>5.520300406458888</v>
+        <v>1.782867189459018</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -1306,14 +1306,14 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Xe</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.99643174764067</v>
+        <v>-1.158722301876317</v>
       </c>
       <c r="C55" t="n">
-        <v>5.778129992885618</v>
+        <v>1.755119001121404</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
@@ -1322,14 +1322,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Cs</t>
+          <t>Tm</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-3.641609972365357</v>
+        <v>-1.273501382985702</v>
       </c>
       <c r="C56" t="n">
-        <v>-6.799314923354609</v>
+        <v>1.604613825252576</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
@@ -1338,14 +1338,14 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Ba</t>
+          <t>Yb</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-2.891958683208355</v>
+        <v>-2.117596765146337</v>
       </c>
       <c r="C57" t="n">
-        <v>-4.300308856149964</v>
+        <v>1.689577175848014</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1354,14 +1354,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>La</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-3.036948561704279</v>
+        <v>-1.410262446296695</v>
       </c>
       <c r="C58" t="n">
-        <v>-3.406024379814163</v>
+        <v>2.086768413877855</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
@@ -1370,14 +1370,14 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>Hf</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-3.403305820141159</v>
+        <v>0.6985452622438476</v>
       </c>
       <c r="C59" t="n">
-        <v>-2.85048316963723</v>
+        <v>2.292201570355205</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -1386,14 +1386,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Pr</t>
+          <t>Ta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-3.739810903388237</v>
+        <v>2.361677138175618</v>
       </c>
       <c r="C60" t="n">
-        <v>-3.034214688872973</v>
+        <v>2.84597388948397</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -1402,14 +1402,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Nd</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-3.910031105062136</v>
+        <v>4.070567843173619</v>
       </c>
       <c r="C61" t="n">
-        <v>-2.575626513373123</v>
+        <v>3.090023175599187</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -1418,14 +1418,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Pm</t>
+          <t>Re</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-3.699516585812532</v>
+        <v>4.207177656332833</v>
       </c>
       <c r="C62" t="n">
-        <v>-2.688211218525503</v>
+        <v>2.674908324766429</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -1434,14 +1434,14 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sm</t>
+          <t>Os</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-4.287206790410791</v>
+        <v>4.630444831340776</v>
       </c>
       <c r="C63" t="n">
-        <v>-2.202679961898252</v>
+        <v>3.101126805827588</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -1450,14 +1450,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Eu</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-4.481244360204085</v>
+        <v>4.232012649378586</v>
       </c>
       <c r="C64" t="n">
-        <v>-2.001596733905922</v>
+        <v>2.46815758439997</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
@@ -1466,14 +1466,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Gd</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-5.063830895219862</v>
+        <v>3.29144275737969</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.913578321184062</v>
+        <v>2.054514170426419</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -1482,14 +1482,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Au</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-5.17442015324828</v>
+        <v>2.180528616947258</v>
       </c>
       <c r="C66" t="n">
-        <v>-1.501330997099385</v>
+        <v>2.354579761462892</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
@@ -1498,14 +1498,14 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Tl</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-5.307277007559621</v>
+        <v>-0.5841907362805592</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.16232954001096</v>
+        <v>1.969667643563513</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -1514,14 +1514,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Pb</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-5.602468050260116</v>
+        <v>0.537755362593063</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.9507104079248514</v>
+        <v>2.095724126992055</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -1530,14 +1530,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Er</t>
+          <t>Bi</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-5.909986137673768</v>
+        <v>1.177943754111814</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.6974262963759673</v>
+        <v>1.35665049449537</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -1546,14 +1546,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Tm</t>
+          <t>Th</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-6.076838091035545</v>
+        <v>-0.6020155604194924</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.2856372468242915</v>
+        <v>2.736493610282093</v>
       </c>
       <c r="D70" t="n">
         <v>1</v>
@@ -1562,256 +1562,16 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Yb</t>
+          <t>U</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-6.194207610099539</v>
+        <v>0.413513197653563</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.01920416572083571</v>
+        <v>2.567186059143209</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Lu</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>-6.808272192871561</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-0.1537132862344408</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Hf</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>-7.028694011812333</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.7260293748864657</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Ta</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>-7.419843086057625</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1.392465624845905</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>-7.710877296168523</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1.927425416060022</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Re</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>-7.853870180264871</v>
-      </c>
-      <c r="C76" t="n">
-        <v>2.59415923056173</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Os</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>-8.103540036470967</v>
-      </c>
-      <c r="C77" t="n">
-        <v>3.393754919627167</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Ir</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>-8.093348658893772</v>
-      </c>
-      <c r="C78" t="n">
-        <v>3.740018504584012</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Pt</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>-8.15447854312408</v>
-      </c>
-      <c r="C79" t="n">
-        <v>3.945688343806051</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Au</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>-8.291616498876891</v>
-      </c>
-      <c r="C80" t="n">
-        <v>4.43723461513129</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Hg</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>-7.726355931974462</v>
-      </c>
-      <c r="C81" t="n">
-        <v>5.446664107185907</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Tl</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>-7.942072996669708</v>
-      </c>
-      <c r="C82" t="n">
-        <v>4.93912996320031</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Pb</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>-7.982720791167633</v>
-      </c>
-      <c r="C83" t="n">
-        <v>5.764615883216703</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Bi</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>-7.95013681050556</v>
-      </c>
-      <c r="C84" t="n">
-        <v>6.467779708751925</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>-12.43073539736838</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.7671823243940342</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>U</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>-13.09732012666377</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2.040762481891464</v>
-      </c>
-      <c r="D86" t="n">
         <v>1</v>
       </c>
     </row>
